--- a/docss/trend/spain/E_fallot.xlsx
+++ b/docss/trend/spain/E_fallot.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej18_Fallot_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej18_Fallot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,13 +12834,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>8.9316082856380902E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="C2">
-        <v>9.9150144912684895E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D2">
-        <v>7.9844708357280705E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12848,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.13297436872182</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="C3">
-        <v>0.14749014759909801</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D3">
-        <v>0.118016724010043</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,13 +12862,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>8.1881116732678894E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C4">
-        <v>9.6846624832260003E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>6.6234060330486802E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,13 +12876,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>9.2992425848834701E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.115940084170696</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D5">
-        <v>6.8490038978679696E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,13 +12890,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>7.3192793582396096E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C6">
-        <v>6.6214167466465607E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>8.0243526470794094E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,13 +12904,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>9.3531140891976602E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C7">
-        <v>0.11495742993616</v>
+        <v>0.115</v>
       </c>
       <c r="D7">
-        <v>7.2297065046357495E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,13 +12918,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>7.4291653064357505E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C8">
-        <v>9.3463487955388294E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>5.4697330500715402E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>6.4344119215287404E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C9">
-        <v>6.9111206444102097E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D9">
-        <v>5.9859021668913201E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12946,13 +12946,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>9.7058839869840402E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C10">
-        <v>0.11524262254527499</v>
+        <v>0.115</v>
       </c>
       <c r="D10">
-        <v>7.7123427382530904E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,13 +12960,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>5.27029775924273E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C11">
-        <v>5.8220394528199E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D11">
-        <v>4.6906103844386697E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,13 +12974,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>5.4616919154904402E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C12">
-        <v>6.8809920869924004E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D12">
-        <v>3.9636045142520997E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,13 +12988,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>3.9447626668930001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C13">
-        <v>4.9530361631272897E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
-        <v>2.9025712882289199E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +13002,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>4.32629928298899E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C14">
-        <v>4.8705060286226003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D14">
-        <v>3.7916189874419998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13016,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>5.3405725282028797E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>5.48594958786826E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D15">
-        <v>5.2061258750278699E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,13 +13030,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>3.2404827796547499E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C16">
-        <v>3.68398535702225E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D16">
-        <v>2.7635872221663998E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
